--- a/Лабораторная 0. X-матрица/X-Матрица Николюк.xlsx
+++ b/Лабораторная 0. X-матрица/X-Матрица Николюк.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnikolyuk001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124E9BC0-5054-4851-A8C9-6D477411CBCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC66C6E8-3E9F-4850-AC3D-0770AE0AB66E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15870" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15870" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X-Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="X-Matrix Рефлексия" sheetId="6" r:id="rId2"/>
+    <sheet name="X-Matrix Апгрейд" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="52">
   <si>
     <t>XXX</t>
   </si>
@@ -164,6 +165,24 @@
   </si>
   <si>
     <t>Способность выбирать инструмент оптимизации для той или иной задачи в финансовой сфере</t>
+  </si>
+  <si>
+    <t>Проблема понимания определения параметров окна сглаживания</t>
+  </si>
+  <si>
+    <t>Проблема понимания низкоуровневого механизма работы ген алгоритмов</t>
+  </si>
+  <si>
+    <t>Проблема понимания областей применения ген алгоритмов</t>
+  </si>
+  <si>
+    <t>Проблема определения инициирующих параметров модели Хольта-Уинтерса</t>
+  </si>
+  <si>
+    <t>Степень влияния проблемы на освоение НТС</t>
+  </si>
+  <si>
+    <t>Степень влияния проблемы на получение компетенции</t>
   </si>
 </sst>
 </file>
@@ -229,15 +248,33 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -674,11 +711,20 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,6 +879,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,6 +1442,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1013573</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2689</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3134285" cy="749821"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D27D1B7-969C-47C8-9B0F-33E4CF3C123F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12703923" y="4142889"/>
+          <a:ext cx="3134285" cy="749821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Что</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> я буду уметь делать, какие у меня будут компетенции после окончания курса</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1271755</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2771775" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FC89F1-7A05-4EE1-93BC-291E621D6C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10174455" y="3434080"/>
+          <a:ext cx="2771775" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Мои нужды - зачем</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> мне нужны прокачиваемые компетенции</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>798307</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54348</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3457575" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B0988A-EE14-4122-9B81-22D9722143FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9701007" y="5115298"/>
+          <a:ext cx="3457575" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Мероприятия курса, темы</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161589</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3095625" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E530D7-272B-49FE-8574-E4CB68BBCD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7569200" y="4117639"/>
+          <a:ext cx="3095625" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Научно-технологические</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+            <a:t> средства - НТС (что преподается в курсе)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302381</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>383016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Down 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387C83A9-A0AD-4BC7-96DC-2FF5E552F387}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10784921" y="7892143"/>
+          <a:ext cx="1209523" cy="332619"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1655,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -2526,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A1D792-EC32-4614-BB3A-5FB92BB584A8}">
   <dimension ref="C1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="D6" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3393,4 +3792,952 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3D7DA9-CDFD-4BB0-B47A-4EDAEA4D35BD}">
+  <dimension ref="C1:AH46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="14" width="19.08984375" customWidth="1"/>
+    <col min="15" max="17" width="12.08984375" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" customWidth="1"/>
+    <col min="19" max="20" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="3:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E4" s="6"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:24" ht="22.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="10"/>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" ht="38" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" ht="22.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="10"/>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="10"/>
+      <c r="D9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="46"/>
+      <c r="D10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C11" s="46"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C12" s="46"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C13" s="46"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C14" s="46"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C15" s="46"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C16" s="46"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+    </row>
+    <row r="17" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C17" s="46"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+    </row>
+    <row r="18" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C18" s="46"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+    </row>
+    <row r="19" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C19" s="46"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+    </row>
+    <row r="20" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C20" s="46"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+    </row>
+    <row r="21" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C21" s="46"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C22" s="46"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C23" s="46"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.35">
+      <c r="C24" s="46"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="3:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="46"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="3:34" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="W26" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+    </row>
+    <row r="27" spans="3:34" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+    </row>
+    <row r="28" spans="3:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
+        <v>0</v>
+      </c>
+      <c r="X28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+    </row>
+    <row r="29" spans="3:34" ht="28.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="10"/>
+      <c r="D29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:34" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C31" s="10"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+    </row>
+    <row r="32" spans="3:34" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="3:25" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S33" s="14"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="3:25" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="3:25" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C37" s="69"/>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="D31:R31"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="X28:AH28"/>
+    <mergeCell ref="X27:AH27"/>
+    <mergeCell ref="X26:AH26"/>
+    <mergeCell ref="T10:T25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I10:N25"/>
+    <mergeCell ref="O10:O25"/>
+    <mergeCell ref="P10:P25"/>
+    <mergeCell ref="Q10:Q25"/>
+    <mergeCell ref="R10:R25"/>
+    <mergeCell ref="S10:S25"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="D10:D25"/>
+    <mergeCell ref="E10:E25"/>
+    <mergeCell ref="F10:F25"/>
+    <mergeCell ref="G10:G25"/>
+    <mergeCell ref="H10:H25"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>